--- a/Copy_of_Human_sera_H3_results_Post_Vacc_cohort_v9.xlsx
+++ b/Copy_of_Human_sera_H3_results_Post_Vacc_cohort_v9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carine.souza/Desktop/Human sera_R2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carine.souza/Library/Containers/com.microsoft.Excel/Data/Desktop/Human sera_R2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C93DD2-2625-EA40-B422-BF7F64048190}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AC2345-BC83-5F40-922F-6DEB0185F1D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2020" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Mod" sheetId="9" r:id="rId1"/>
@@ -1083,7 +1083,7 @@
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1525,6 +1525,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1820,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9665EE-F000-0542-A823-C4AB14EC0999}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1998,7 @@
         <v>320</v>
       </c>
       <c r="M3" s="106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N3" s="106">
         <v>160</v>
@@ -2777,7 +2787,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>39</v>
       </c>
@@ -2835,8 +2845,10 @@
       <c r="S17" s="106">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>28</v>
       </c>
@@ -2894,8 +2906,10 @@
       <c r="S18" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>33</v>
       </c>
@@ -2953,8 +2967,10 @@
       <c r="S19" s="106">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>5</v>
       </c>
@@ -3012,8 +3028,10 @@
       <c r="S20" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="106"/>
+      <c r="V20" s="106"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>38</v>
       </c>
@@ -3071,8 +3089,10 @@
       <c r="S21" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>29</v>
       </c>
@@ -3131,8 +3151,10 @@
       <c r="S22" s="106">
         <v>320</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>35</v>
       </c>
@@ -3191,8 +3213,10 @@
       <c r="S23" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="106"/>
+      <c r="V23" s="106"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3255,7 @@
         <v>640</v>
       </c>
       <c r="M24" s="106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N24" s="106">
         <v>640</v>
@@ -3251,8 +3275,10 @@
       <c r="S24" s="106">
         <v>640</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>18</v>
       </c>
@@ -3311,8 +3337,10 @@
       <c r="S25" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>20</v>
       </c>
@@ -3371,8 +3399,10 @@
       <c r="S26" s="106">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>40</v>
       </c>
@@ -3430,8 +3460,10 @@
       <c r="S27" s="106">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3501,7 @@
         <v>80</v>
       </c>
       <c r="M28" s="106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N28" s="106">
         <v>20</v>
@@ -3489,8 +3521,10 @@
       <c r="S28" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>34</v>
       </c>
@@ -3548,8 +3582,10 @@
       <c r="S29" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>32</v>
       </c>
@@ -3607,8 +3643,10 @@
       <c r="S30" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>36</v>
       </c>
@@ -3666,8 +3704,10 @@
       <c r="S31" s="106">
         <v>320</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>6</v>
       </c>
@@ -3726,8 +3766,10 @@
       <c r="S32" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>25</v>
       </c>
@@ -3786,8 +3828,10 @@
       <c r="S33" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U33" s="106"/>
+      <c r="V33" s="106"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>3</v>
       </c>
@@ -3845,8 +3889,10 @@
       <c r="S34" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>19</v>
       </c>
@@ -3904,8 +3950,10 @@
       <c r="S35" s="106">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U35" s="106"/>
+      <c r="V35" s="106"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>42</v>
       </c>
@@ -3963,8 +4011,10 @@
       <c r="S36" s="106">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="106" t="s">
         <v>37</v>
       </c>
@@ -4022,8 +4072,10 @@
       <c r="S37" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U37" s="106"/>
+      <c r="V37" s="106"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>41</v>
       </c>
@@ -4082,8 +4134,10 @@
       <c r="S38" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="106"/>
+      <c r="V38" s="106"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>15</v>
       </c>
@@ -4142,8 +4196,10 @@
       <c r="S39" s="106">
         <v>320</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U39" s="106"/>
+      <c r="V39" s="106"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>12</v>
       </c>
@@ -4202,8 +4258,10 @@
       <c r="S40" s="106">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U40" s="106"/>
+      <c r="V40" s="106"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>27</v>
       </c>
@@ -4261,11 +4319,18 @@
       <c r="S41" s="106">
         <v>40</v>
       </c>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H41">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="greaterThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:S41">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
